--- a/CS428-weekly-status-report2.xlsx
+++ b/CS428-weekly-status-report2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Desktop/CS428/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252AF702-2E1C-8E4E-BDE7-F181853A41E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BC1188-B079-F040-BA25-C13A037AA049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="500" windowWidth="18760" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4360" yWindow="500" windowWidth="18760" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status Report" sheetId="1" r:id="rId1"/>
@@ -658,6 +658,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,9 +724,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,6 +781,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,6 +794,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,12 +859,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -860,226 +866,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1214,6 +1011,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1496,7 +1307,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:I16"/>
+      <selection activeCell="G22" sqref="G22:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1512,58 +1323,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="81" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83">
+      <c r="G1" s="84"/>
+      <c r="H1" s="85">
         <v>44597</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="81" t="s">
+      <c r="K1" s="84"/>
+      <c r="L1" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70" t="s">
+      <c r="L2" s="74"/>
+      <c r="M2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="71"/>
+      <c r="N2" s="75"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
@@ -1574,22 +1385,22 @@
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
       <c r="F3" s="54"/>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="3">
         <v>0.8</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58">
+      <c r="L3" s="59"/>
+      <c r="M3" s="60">
         <v>44597</v>
       </c>
-      <c r="N3" s="59"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="44"/>
@@ -1606,14 +1417,14 @@
       <c r="J4" s="3">
         <v>0.3</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="84">
+      <c r="L4" s="58"/>
+      <c r="M4" s="62">
         <v>44604</v>
       </c>
-      <c r="N4" s="85"/>
+      <c r="N4" s="63"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
@@ -1630,14 +1441,14 @@
       <c r="J5" s="3">
         <v>0.5</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="84">
+      <c r="L5" s="58"/>
+      <c r="M5" s="62">
         <v>44604</v>
       </c>
-      <c r="N5" s="85"/>
+      <c r="N5" s="63"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
@@ -1654,14 +1465,14 @@
       <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="K6" s="79" t="s">
+      <c r="K6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="84">
+      <c r="L6" s="58"/>
+      <c r="M6" s="62">
         <v>44604</v>
       </c>
-      <c r="N6" s="85"/>
+      <c r="N6" s="63"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
@@ -1678,14 +1489,14 @@
       <c r="J7" s="3">
         <v>0.3</v>
       </c>
-      <c r="K7" s="79" t="s">
+      <c r="K7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="84">
+      <c r="L7" s="58"/>
+      <c r="M7" s="62">
         <v>44604</v>
       </c>
-      <c r="N7" s="85"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
@@ -1694,22 +1505,22 @@
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
       <c r="F8" s="54"/>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="78"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="79" t="s">
+      <c r="K8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="84">
+      <c r="L8" s="58"/>
+      <c r="M8" s="62">
         <v>44604</v>
       </c>
-      <c r="N8" s="85"/>
+      <c r="N8" s="63"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
@@ -1718,22 +1529,22 @@
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
       <c r="F9" s="54"/>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
       <c r="J9" s="3">
         <v>0.4</v>
       </c>
-      <c r="K9" s="79" t="s">
+      <c r="K9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="84">
+      <c r="L9" s="58"/>
+      <c r="M9" s="62">
         <v>44604</v>
       </c>
-      <c r="N9" s="85"/>
+      <c r="N9" s="63"/>
     </row>
     <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
@@ -1742,18 +1553,18 @@
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
       <c r="F10" s="56"/>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="57"/>
+      <c r="L10" s="59"/>
       <c r="M10" s="41">
         <v>44611</v>
       </c>
@@ -1888,30 +1699,30 @@
       <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="63" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="62"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="66"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
@@ -1923,21 +1734,21 @@
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="5">
-        <v>8</v>
-      </c>
-      <c r="F19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
@@ -1948,16 +1759,18 @@
         <v>39</v>
       </c>
       <c r="D20" s="14"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="33"/>
+      <c r="E20" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
@@ -1971,15 +1784,15 @@
       <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
@@ -1993,17 +1806,17 @@
       <c r="E22" s="5">
         <v>3</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -2014,16 +1827,18 @@
         <v>38</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
+      <c r="E23" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
@@ -2031,15 +1846,15 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
@@ -2047,15 +1862,15 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
@@ -2063,15 +1878,15 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
@@ -2079,18 +1894,18 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="15"/>
@@ -2098,9 +1913,9 @@
       <c r="D28" s="15"/>
       <c r="E28" s="7">
         <f>SUM(E19:E27)</f>
-        <v>17</v>
-      </c>
-      <c r="F28" s="16"/>
+        <v>27.8</v>
+      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
@@ -2108,7 +1923,7 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="17"/>
+      <c r="N28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -2183,85 +1998,85 @@
     <mergeCell ref="A23:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:L10">
-    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="Ontrack">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="Ontrack">
       <formula>NOT(ISERROR(SEARCH("Ontrack",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L10">
-    <cfRule type="containsText" dxfId="8" priority="27" operator="containsText" text="Track">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="Track">
       <formula>NOT(ISERROR(SEARCH("Track",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="48" priority="22" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="26" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="18" priority="26" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L5">
-    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="25" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
-    <cfRule type="containsText" dxfId="43" priority="20" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="Delays">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="Delays">
       <formula>NOT(ISERROR(SEARCH("Delays",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsText" dxfId="41" priority="18" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="19" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
       <formula>252250</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:L3">
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="Delayed">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Delayed">
       <formula>NOT(ISERROR(SEARCH("Delayed",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="delays">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="delays">
       <formula>NOT(ISERROR(SEARCH("delays",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L4">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Possible">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Possible">
       <formula>NOT(ISERROR(SEARCH("Possible",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="delay">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="delay">
       <formula>NOT(ISERROR(SEARCH("delay",K4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="complete">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="complete">
       <formula>NOT(ISERROR(SEARCH("complete",K4)))</formula>
     </cfRule>
   </conditionalFormatting>
